--- a/other/modbus/CANOPEN转modbus.xlsx
+++ b/other/modbus/CANOPEN转modbus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\STM32F4_RTT_v5.0\other\modbus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067401B-10FF-4FD6-B4B7-4D9401344F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD8799-A187-4D1F-B75E-9B5A27B1415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="4260" windowWidth="11520" windowHeight="6210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="555" windowWidth="11520" windowHeight="6210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>寄存器地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,22 @@
   </si>
   <si>
     <t>0X01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机使能模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高位置一使能，置零不使能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,28 +377,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
